--- a/medicine/Enfance/Malika_Doray/Malika_Doray.xlsx
+++ b/medicine/Enfance/Malika_Doray/Malika_Doray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malika Doray, née en 1974, est une autrice et illustratrice de livres pour enfants. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malika Doray est née en 1974[1]. Après un DEUG d'histoire et d'ethnologie, elle suit des études d'architecture d'intérieur et d'art appliqué à l'École nationale supérieure des arts appliqués et des métiers d'art (ENSAAMA), puis obtient une maîtrise d'histoire contemporaine[2], tout en travaillant dans une structure associative destinée aux tout-petits[3]. Son premier album Et après est publié en France en 2002. En une quinzaine d'années, elle devient autrice-illustratrice d'une soixantaine d'albums publiés majoritairement chez les éditeurs L'École des loisirs, MeMo et Didier Jeunesse. 
-Elle est influencée par des auteurs comme Bruno Munari ou Katsumi Komagata[3]. Ses livres s'adressent aux tout-petits. Son dessin épuré et rond met en scène des animaux. Elle aborde de sujets profonds comme la mort, la tristesse ou le rapport à l'altérité, avec poésie et douceur[4],[5],[6]. Certains de ses albums prennent des formes ludiques et originales, comme des livres-accordéon[7]. Elle va souvent à la rencontre de ses jeunes lecteurs, dans des bibliothèques ou écoles[8],[9].
-Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[10] en 2024, dont son premier album Et après... de 2002, ou le plus récent Le Déménagement, publié en 2017.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malika Doray est née en 1974. Après un DEUG d'histoire et d'ethnologie, elle suit des études d'architecture d'intérieur et d'art appliqué à l'École nationale supérieure des arts appliqués et des métiers d'art (ENSAAMA), puis obtient une maîtrise d'histoire contemporaine, tout en travaillant dans une structure associative destinée aux tout-petits. Son premier album Et après est publié en France en 2002. En une quinzaine d'années, elle devient autrice-illustratrice d'une soixantaine d'albums publiés majoritairement chez les éditeurs L'École des loisirs, MeMo et Didier Jeunesse. 
+Elle est influencée par des auteurs comme Bruno Munari ou Katsumi Komagata. Ses livres s'adressent aux tout-petits. Son dessin épuré et rond met en scène des animaux. Elle aborde de sujets profonds comme la mort, la tristesse ou le rapport à l'altérité, avec poésie et douceur. Certains de ses albums prennent des formes ludiques et originales, comme des livres-accordéon. Elle va souvent à la rencontre de ses jeunes lecteurs, dans des bibliothèques ou écoles,.
+Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024, dont son premier album Et après... de 2002, ou le plus récent Le Déménagement, publié en 2017.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lite non exhaustive
 Et après..., Didier Jeunesse, février 2002
@@ -577,7 +593,7 @@
 Le grand cirque ! , L'École des loisirs, 2010
 Comme des bolides... , L'École des loisirs, 2010
 Chez les ours, L'École des loisirs, avril 2011
- Quand ils ont su[7], Loulou et Cie-l'École des loisirs, 2011
+ Quand ils ont su, Loulou et Cie-l'École des loisirs, 2011
 3 petits livres marionnettes, Loulou &amp; Cie-l'École des loisirs, 2011
 Mon chagrin, MeMo, juin 2012
 Ton cauchemar, MeMo, juin 2012
@@ -641,9 +657,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[10] en 2024, dont :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024, dont :
 Et après (2002)
 Je t'aime tous les jours (2006)
 Quand ils ont su (2011)
@@ -675,9 +693,11 @@
           <t>Adaptation de son œuvre au théâtre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lapin[11], mise en scène Thomas Gornet ; pièce d'après l'œuvre de Malika Doray ; scénographie, costumes et lumières Frédéric Rebuffat ; coproduction Compagnie du Dagor, Scène nationale d'Aubusson, la Fabrique de Guéret... et al. ; avec Mitsou Doudeau et Laetitia Vitteau ; Aubusson (France), Théâtre Jean Lurçat (Gérard Bono), 2011</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lapin, mise en scène Thomas Gornet ; pièce d'après l'œuvre de Malika Doray ; scénographie, costumes et lumières Frédéric Rebuffat ; coproduction Compagnie du Dagor, Scène nationale d'Aubusson, la Fabrique de Guéret... et al. ; avec Mitsou Doudeau et Laetitia Vitteau ; Aubusson (France), Théâtre Jean Lurçat (Gérard Bono), 2011</t>
         </is>
       </c>
     </row>
@@ -707,8 +727,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Conférence
-Conférence enregistrée
+          <t>Conférence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conférence enregistrée
 « Malika Doray : conférence du 17 octobre 2013 », intervieweuse Anne-Laure Cognet, collection Les visiteurs du soir, Conférences de la Bibliothèque nationale de France, 2013 ; 1 fichier son numérique (1 h 53 min 48 s)</t>
         </is>
       </c>
